--- a/pred_ohlcv/54_21/2020-01-16 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 OMG ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-15691.78539358947</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-17363.67799358947</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-18106.66779358947</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-18106.66779358947</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-17785.45970307084</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1818.138598897663</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2058.138598897663</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>7694.907926928237</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2513.120726928239</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>5110.211526928239</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3426.221826928238</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3449.604337720445</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3450.604337720445</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3418.004337720445</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6174.573962279555</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-6387.410262279555</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-6516.791162279555</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6352.891162279556</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-6511.391162279556</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4338.161562279556</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3913.181237720444</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5037.695137720444</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4842.262737720444</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4263.897837720444</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3595.115837720444</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3095.115837720444</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3384.115837720444</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5717.907317953138</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>6491.907317953138</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>15251.08274978491</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>15231.09284978491</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>18991.86624978491</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>22232.93304978491</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>22259.93304978491</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>21542.67274978491</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>21542.67274978491</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>20270.6649683453</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>19282.5934683453</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>20512.1788683453</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>20444.9209683453</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>20035.9380683453</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>20035.9380683453</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>19949.3543683453</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>21608.17529908009</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>20794.52129908009</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>20988.34149908009</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>20835.02969908009</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>20947.77469908009</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>21012.77689908009</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>21599.27729908009</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>19329.84809908009</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>23979.35929908009</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>23617.45929908008</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>23921.18769908008</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>25343.55189908008</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>25963.05189908008</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>25790.89189908008</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>25797.60506872294</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>23851.04216872294</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>23725.85256872294</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>24078.35256872294</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>24061.52506872294</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>24495.24326872294</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>24576.74326872294</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>24151.85229085098</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>24544.09269085098</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>24654.04519085098</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>24644.81489085098</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>24644.81489085098</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>24644.81489085098</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>22785.60009085098</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>22785.60009085098</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>22785.60009085098</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>22790.89999085098</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>22520.89999085098</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>22737.75199085098</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>22728.15039085098</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>22732.92159085098</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>22708.03779085098</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>22724.07139085098</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>22676.47139085098</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>22240.41159085098</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 OMG ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-18325.78539358947</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-15691.78539358947</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-16249.59749358947</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-16249.59749358947</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-16229.59749358947</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-17736.68659358946</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-18276.30049358946</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-18620.18099358946</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-17964.43929358946</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-18203.67799358947</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-17363.67799358947</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-17396.94839358947</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-14765.45970307084</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-14412.97557869507</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12898.80177869507</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5902.877103070842</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1818.138598897663</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2058.138598897663</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>7694.907926928237</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2513.120726928239</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>5110.211526928239</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3426.221826928238</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3449.604337720445</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3450.604337720445</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3418.004337720445</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-6174.573962279555</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-6387.410262279555</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-6516.791162279555</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6352.891162279556</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-6511.391162279556</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4338.161562279556</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3913.181237720444</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5037.695137720444</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4842.262737720444</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4263.897837720444</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3595.115837720444</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3095.115837720444</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3384.115837720444</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5717.907317953138</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>6491.907317953138</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>15816.3730497849</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15816.3730497849</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>15056.6850497849</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>15251.08274978491</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>15231.09284978491</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>18991.86624978491</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>22232.93304978491</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>22259.93304978491</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>21542.67274978491</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>21542.67274978491</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>20270.6649683453</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>19282.5934683453</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>20512.1788683453</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>20444.9209683453</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>21599.27729908009</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>23921.18769908008</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>25790.89189908008</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>25797.60506872294</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>23725.85256872294</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>24061.52506872294</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>24495.24326872294</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>24576.74326872294</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>24151.85229085098</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>24544.09269085098</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>24654.04519085098</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>24644.81489085098</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>24644.81489085098</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>22737.75199085098</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>22240.41159085098</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
